--- a/Mifos Automation Excels/Loan Product/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Loanproduct.xlsx
@@ -620,7 +620,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>3531</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/Mifos Automation Excels/Loan Product/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -216,15 +216,6 @@
   </si>
   <si>
     <t>Calculate till pre closure date</t>
-  </si>
-  <si>
-    <t>charges</t>
-  </si>
-  <si>
-    <t>addcharges</t>
-  </si>
-  <si>
-    <t>SpecifiedDueDateFees-Flat</t>
   </si>
   <si>
     <t>allowPartialPeriodInterestCalcualtion</t>
@@ -617,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -634,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +766,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
@@ -863,121 +854,105 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>17</v>
+      <c r="A31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>17</v>
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1006,7 +981,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
